--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
@@ -384,7 +384,7 @@
         <v>169.209</v>
       </c>
       <c r="C2">
-        <v>128.4647803327861</v>
+        <v>133.0154521279078</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.177</v>
       </c>
       <c r="C3">
-        <v>12.2817034049222</v>
+        <v>12.71676429192989</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.301</v>
       </c>
       <c r="C4">
-        <v>12.37584516311039</v>
+        <v>12.81424088043204</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.417</v>
       </c>
       <c r="C5">
-        <v>16.25995189610056</v>
+        <v>16.83593625766598</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>30.235</v>
       </c>
       <c r="C6">
-        <v>22.9546456356446</v>
+        <v>23.76777946260124</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.445</v>
       </c>
       <c r="C7">
-        <v>7.17071698457626</v>
+        <v>7.424728858087275</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.632999999999999</v>
       </c>
       <c r="C8">
-        <v>7.313448037313193</v>
+        <v>7.572515943880858</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.354</v>
       </c>
       <c r="C9">
-        <v>21.52657590054794</v>
+        <v>22.28912250314522</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.76</v>
       </c>
       <c r="C10">
-        <v>36.25976105699969</v>
+        <v>37.54420860373194</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.35</v>
       </c>
       <c r="C11">
-        <v>10.13542315977693</v>
+        <v>10.49445529438487</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.867</v>
       </c>
       <c r="C12">
-        <v>2.176648554238236</v>
+        <v>2.253753058352167</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.674</v>
       </c>
       <c r="C13">
-        <v>5.826160099485253</v>
+        <v>6.032543065850899</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.816</v>
       </c>
       <c r="C14">
-        <v>1.378721232820592</v>
+        <v>1.427560360644414</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.202</v>
       </c>
       <c r="C15">
-        <v>2.430983142891814</v>
+        <v>2.517097067612012</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.847</v>
       </c>
       <c r="C16">
-        <v>18.10482667349815</v>
+        <v>18.74616295170008</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.139</v>
       </c>
       <c r="C17">
-        <v>19.08572305720091</v>
+        <v>19.76180611577088</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.303</v>
       </c>
       <c r="C18">
-        <v>18.45102539715795</v>
+        <v>19.10462524490154</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>7.74</v>
       </c>
       <c r="C19">
-        <v>5.876267809488644</v>
+        <v>6.08442576618269</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.689</v>
       </c>
       <c r="C20">
-        <v>28.61378003511854</v>
+        <v>29.62738019401284</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.376</v>
       </c>
       <c r="C21">
-        <v>67.85494983732004</v>
+        <v>70.25860946748631</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.867</v>
       </c>
       <c r="C22">
-        <v>12.80555673677584</v>
+        <v>13.25917434085316</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.214</v>
       </c>
       <c r="C23">
-        <v>2.440093635619703</v>
+        <v>2.526530285854155</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.395</v>
       </c>
       <c r="C24">
-        <v>22.31691114469234</v>
+        <v>23.10745418565119</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.565</v>
       </c>
       <c r="C25">
-        <v>6.502614184531038</v>
+        <v>6.732959520330068</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>17.084</v>
       </c>
       <c r="C26">
-        <v>12.97030481360517</v>
+        <v>13.42975837073192</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>35.49</v>
       </c>
       <c r="C27">
-        <v>26.94428224273282</v>
+        <v>27.89874295114001</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>5.416</v>
       </c>
       <c r="C28">
-        <v>4.111869051187403</v>
+        <v>4.257525833287525</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>19.068</v>
       </c>
       <c r="C29">
-        <v>14.47657294461621</v>
+        <v>14.98938378676635</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.085</v>
       </c>
       <c r="C30">
-        <v>2.342155838794893</v>
+        <v>2.425123189751111</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.296</v>
       </c>
       <c r="C31">
-        <v>2.502348669260281</v>
+        <v>2.590990610508804</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.629</v>
       </c>
       <c r="C32">
-        <v>4.273580297107439</v>
+        <v>4.424965457085576</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.713</v>
       </c>
       <c r="C33">
-        <v>5.096561473526779</v>
+        <v>5.277099504959224</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>135.267</v>
       </c>
       <c r="C34">
-        <v>102.695751651951</v>
+        <v>106.3335943300044</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>12.245</v>
       </c>
       <c r="C35">
-        <v>9.296498621083778</v>
+        <v>9.625813114587471</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>30.245</v>
       </c>
       <c r="C36">
-        <v>22.96223771291784</v>
+        <v>23.77564047780303</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.479</v>
       </c>
       <c r="C37">
-        <v>4.159699138008822</v>
+        <v>4.30705022905878</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>12.456</v>
       </c>
       <c r="C38">
-        <v>9.456691451549167</v>
+        <v>9.791680535345165</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.738</v>
       </c>
       <c r="C39">
-        <v>8.911580303330453</v>
+        <v>9.2272596438569</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.135</v>
       </c>
       <c r="C40">
-        <v>7.694570316429897</v>
+        <v>7.967138907010536</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.242</v>
       </c>
       <c r="C41">
-        <v>5.498182361281236</v>
+        <v>5.692947209133726</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.836</v>
       </c>
       <c r="C42">
-        <v>268</v>
+        <v>242.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
@@ -384,7 +384,7 @@
         <v>169.209</v>
       </c>
       <c r="C2">
-        <v>133.0154521279078</v>
+        <v>132.1614712523325</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.177</v>
       </c>
       <c r="C3">
-        <v>12.71676429192989</v>
+        <v>12.63512059316575</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.301</v>
       </c>
       <c r="C4">
-        <v>12.81424088043204</v>
+        <v>12.73197136608733</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.417</v>
       </c>
       <c r="C5">
-        <v>16.83593625766598</v>
+        <v>16.72784680372324</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>30.235</v>
       </c>
       <c r="C6">
-        <v>23.76777946260124</v>
+        <v>23.61518644584078</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.445</v>
       </c>
       <c r="C7">
-        <v>7.424728858087275</v>
+        <v>7.377060889067842</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.632999999999999</v>
       </c>
       <c r="C8">
-        <v>7.572515943880858</v>
+        <v>7.523899157690896</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.354</v>
       </c>
       <c r="C9">
-        <v>22.28912250314522</v>
+        <v>22.1460227049899</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.76</v>
       </c>
       <c r="C10">
-        <v>37.54420860373194</v>
+        <v>37.30316866721864</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.35</v>
       </c>
       <c r="C11">
-        <v>10.49445529438487</v>
+        <v>10.42707918147757</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.867</v>
       </c>
       <c r="C12">
-        <v>2.253753058352167</v>
+        <v>2.239283596501588</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.674</v>
       </c>
       <c r="C13">
-        <v>6.032543065850899</v>
+        <v>5.99381315645385</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.816</v>
       </c>
       <c r="C14">
-        <v>1.427560360644414</v>
+        <v>1.418395190529084</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.202</v>
       </c>
       <c r="C15">
-        <v>2.517097067612012</v>
+        <v>2.500936894313947</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.847</v>
       </c>
       <c r="C16">
-        <v>18.74616295170008</v>
+        <v>18.62580953113826</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.139</v>
       </c>
       <c r="C17">
-        <v>19.76180611577088</v>
+        <v>19.63493210061159</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.303</v>
       </c>
       <c r="C18">
-        <v>19.10462524490154</v>
+        <v>18.9819704380112</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>7.74</v>
       </c>
       <c r="C19">
-        <v>6.08442576618269</v>
+        <v>6.045362761395987</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.689</v>
       </c>
       <c r="C20">
-        <v>29.62738019401284</v>
+        <v>29.43716758582084</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.376</v>
       </c>
       <c r="C21">
-        <v>70.25860946748631</v>
+        <v>69.8075377470966</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.867</v>
       </c>
       <c r="C22">
-        <v>13.25917434085316</v>
+        <v>13.17404828119717</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.214</v>
       </c>
       <c r="C23">
-        <v>2.526530285854155</v>
+        <v>2.510309549757971</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.395</v>
       </c>
       <c r="C24">
-        <v>23.10745418565119</v>
+        <v>22.95910056475905</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.565</v>
       </c>
       <c r="C25">
-        <v>6.732959520330068</v>
+        <v>6.689732823172689</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>17.084</v>
       </c>
       <c r="C26">
-        <v>13.42975837073192</v>
+        <v>13.34353713380995</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>35.49</v>
       </c>
       <c r="C27">
-        <v>27.89874295114001</v>
+        <v>27.71962847570331</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>5.416</v>
       </c>
       <c r="C28">
-        <v>4.257525833287525</v>
+        <v>4.23019182373652</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>19.068</v>
       </c>
       <c r="C29">
-        <v>14.98938378676635</v>
+        <v>14.89314950055538</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.085</v>
       </c>
       <c r="C30">
-        <v>2.425123189751111</v>
+        <v>2.409553503734705</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.296</v>
       </c>
       <c r="C31">
-        <v>2.590990610508804</v>
+        <v>2.574356028625474</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.629</v>
       </c>
       <c r="C32">
-        <v>4.424965457085576</v>
+        <v>4.396556457867959</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.713</v>
       </c>
       <c r="C33">
-        <v>5.277099504959224</v>
+        <v>5.243219666311532</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>135.267</v>
       </c>
       <c r="C34">
-        <v>106.3335943300044</v>
+        <v>105.6509153289084</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>12.245</v>
       </c>
       <c r="C35">
-        <v>9.625813114587471</v>
+        <v>9.564013826006956</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>30.245</v>
       </c>
       <c r="C36">
-        <v>23.77564047780303</v>
+        <v>23.62299699204414</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.479</v>
       </c>
       <c r="C37">
-        <v>4.30705022905878</v>
+        <v>4.27939826481765</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>12.456</v>
       </c>
       <c r="C38">
-        <v>9.791680535345165</v>
+        <v>9.728816350897727</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.738</v>
       </c>
       <c r="C39">
-        <v>9.2272596438569</v>
+        <v>9.168019133496911</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.135</v>
       </c>
       <c r="C40">
-        <v>7.967138907010536</v>
+        <v>7.915988577099266</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.242</v>
       </c>
       <c r="C41">
-        <v>5.692947209133726</v>
+        <v>5.656397560468958</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.836</v>
       </c>
       <c r="C42">
-        <v>242.07</v>
+        <v>246.936034093561</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2025.xlsx
@@ -384,7 +384,7 @@
         <v>169.209</v>
       </c>
       <c r="C2">
-        <v>133.0154521279078</v>
+        <v>131.9870318919104</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.177</v>
       </c>
       <c r="C3">
-        <v>12.71676429192989</v>
+        <v>12.61844355155715</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>16.301</v>
       </c>
       <c r="C4">
-        <v>12.81424088043204</v>
+        <v>12.71516649155796</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>21.417</v>
       </c>
       <c r="C5">
-        <v>16.83593625766598</v>
+        <v>16.70576779030102</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>30.235</v>
       </c>
       <c r="C6">
-        <v>23.76777946260124</v>
+        <v>23.58401686229403</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.445</v>
       </c>
       <c r="C7">
-        <v>7.424728858087275</v>
+        <v>7.367323937964846</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.632999999999999</v>
       </c>
       <c r="C8">
-        <v>7.572515943880858</v>
+        <v>7.513968395385427</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>28.354</v>
       </c>
       <c r="C9">
-        <v>22.28912250314522</v>
+        <v>22.11679226437853</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>47.76</v>
       </c>
       <c r="C10">
-        <v>37.54420860373194</v>
+        <v>37.25393237450513</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>13.35</v>
       </c>
       <c r="C11">
-        <v>10.49445529438487</v>
+        <v>10.41331652428064</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>2.867</v>
       </c>
       <c r="C12">
-        <v>2.253753058352167</v>
+        <v>2.236327975663866</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>7.674</v>
       </c>
       <c r="C13">
-        <v>6.032543065850899</v>
+        <v>5.985901948114582</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>1.816</v>
       </c>
       <c r="C14">
-        <v>1.427560360644414</v>
+        <v>1.416523056786041</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.202</v>
       </c>
       <c r="C15">
-        <v>2.517097067612012</v>
+        <v>2.497635918407987</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>23.847</v>
       </c>
       <c r="C16">
-        <v>18.74616295170008</v>
+        <v>18.601225404833</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>25.139</v>
       </c>
       <c r="C17">
-        <v>19.76180611577088</v>
+        <v>19.60901603774465</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>24.303</v>
       </c>
       <c r="C18">
-        <v>19.10462524490154</v>
+        <v>18.95691621644888</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>7.74</v>
       </c>
       <c r="C19">
-        <v>6.08442576618269</v>
+        <v>6.037383512953722</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>37.689</v>
       </c>
       <c r="C20">
-        <v>29.62738019401284</v>
+        <v>29.39831359427815</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.376</v>
       </c>
       <c r="C21">
-        <v>70.25860946748631</v>
+        <v>69.71539907671213</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>16.867</v>
       </c>
       <c r="C22">
-        <v>13.25917434085316</v>
+        <v>13.15665991123907</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.214</v>
       </c>
       <c r="C23">
-        <v>2.526530285854155</v>
+        <v>2.506996202924194</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.395</v>
       </c>
       <c r="C24">
-        <v>23.10745418565119</v>
+        <v>22.92879694615952</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.565</v>
       </c>
       <c r="C25">
-        <v>6.732959520330068</v>
+        <v>6.680903073442974</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>17.084</v>
       </c>
       <c r="C26">
-        <v>13.42975837073192</v>
+        <v>13.32592505624049</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>35.49</v>
       </c>
       <c r="C27">
-        <v>27.89874295114001</v>
+        <v>27.68304145668316</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>5.416</v>
       </c>
       <c r="C28">
-        <v>4.257525833287525</v>
+        <v>4.224608411648238</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>19.068</v>
       </c>
       <c r="C29">
-        <v>14.98938378676635</v>
+        <v>14.87349209625343</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.085</v>
       </c>
       <c r="C30">
-        <v>2.425123189751111</v>
+        <v>2.406373144374966</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.296</v>
       </c>
       <c r="C31">
-        <v>2.590990610508804</v>
+        <v>2.570958147118277</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>5.629</v>
       </c>
       <c r="C32">
-        <v>4.424965457085576</v>
+        <v>4.390753461810917</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.713</v>
       </c>
       <c r="C33">
-        <v>5.277099504959224</v>
+        <v>5.236299163108312</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>135.267</v>
       </c>
       <c r="C34">
-        <v>106.3335943300044</v>
+        <v>105.511467137818</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>12.245</v>
       </c>
       <c r="C35">
-        <v>9.625813114587471</v>
+        <v>9.551390325079886</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>30.245</v>
       </c>
       <c r="C36">
-        <v>23.77564047780303</v>
+        <v>23.59181709939087</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.479</v>
       </c>
       <c r="C37">
-        <v>4.30705022905878</v>
+        <v>4.273749905358326</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>12.456</v>
       </c>
       <c r="C38">
-        <v>9.791680535345165</v>
+        <v>9.715975327823198</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.738</v>
       </c>
       <c r="C39">
-        <v>9.2272596438569</v>
+        <v>9.155918304270127</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>10.135</v>
       </c>
       <c r="C40">
-        <v>7.967138907010536</v>
+        <v>7.905540297646766</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.242</v>
       </c>
       <c r="C41">
-        <v>5.692947209133726</v>
+        <v>5.648931705531118</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.836</v>
       </c>
       <c r="C42">
-        <v>242.07</v>
+        <v>247.93</v>
       </c>
     </row>
   </sheetData>
